--- a/data/Capricoin/Capricoin20150101.xlsx
+++ b/data/Capricoin/Capricoin20150101.xlsx
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60">
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145">
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="158">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="162">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
